--- a/biology/Botanique/Polystachya_lejolyana/Polystachya_lejolyana.xlsx
+++ b/biology/Botanique/Polystachya_lejolyana/Polystachya_lejolyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya lejolyana Stévart est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Polystachya, présente au Cameroun et au Gabon.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique lejolyana rend hommage au botaniste belge Jean Lejoly.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord considérée comme endémique du Gabon, où elle a été collectée en 2002 aux monts de Cristal[2], elle a ensuite été observée au sud du Cameroun, à Akom II, sur la route reliant Kribi à Ebolowa[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord considérée comme endémique du Gabon, où elle a été collectée en 2002 aux monts de Cristal, elle a ensuite été observée au sud du Cameroun, à Akom II, sur la route reliant Kribi à Ebolowa.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante épiphyte que l'on trouve en forêt de basse altitude, entre 600 et 650 m[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante épiphyte que l'on trouve en forêt de basse altitude, entre 600 et 650 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La déforestation déjà constatée dans cette région du Cameroun risque d'être encore aggravée par le développement du nouveau port de Kribi, car les coûts de transport du bois destiné à l'exportation y seront moins élevés qu'à partir d'autres régions, comme l'Est par exemple. L'espèce peut donc être considérée comme menacée (EN)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La déforestation déjà constatée dans cette région du Cameroun risque d'être encore aggravée par le développement du nouveau port de Kribi, car les coûts de transport du bois destiné à l'exportation y seront moins élevés qu'à partir d'autres régions, comme l'Est par exemple. L'espèce peut donc être considérée comme menacée (EN).
 </t>
         </is>
       </c>
